--- a/output_path/XBRL_financial_statements_duly_authenticated_as_per_section_134_including_Board/500100NotesSubclassificationand.xlsx
+++ b/output_path/XBRL_financial_statements_duly_authenticated_as_per_section_134_including_Board/500100NotesSubclassificationand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>01/04/2022
 to
@@ -35,6 +35,9 @@
     <t>Total dividend income</t>
   </si>
   <si>
+    <t>Total other non-operating income</t>
+  </si>
+  <si>
     <t>Total other income</t>
   </si>
   <si>
@@ -44,60 +47,9 @@
     <t>Total finance costs</t>
   </si>
   <si>
-    <t>Salaries and wages</t>
-  </si>
-  <si>
-    <t>Total remuneration to directors</t>
-  </si>
-  <si>
-    <t>Total managerial remuneration</t>
-  </si>
-  <si>
     <t>Total employee benefit expense</t>
   </si>
   <si>
-    <t>Total depreciation, depletion and amortisation expense</t>
-  </si>
-  <si>
-    <t>Consumption of stores and spare parts</t>
-  </si>
-  <si>
-    <t>Power and fuel</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Repairs to building</t>
-  </si>
-  <si>
-    <t>Repairs to machinery</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Total rates and taxes excluding taxes on income</t>
-  </si>
-  <si>
-    <t>Directors sitting fees</t>
-  </si>
-  <si>
-    <t>Loss on disposal of intangible Assets</t>
-  </si>
-  <si>
-    <t>Loss on disposal, discard, demolishment and destruction of depreciable property plant and equipment</t>
-  </si>
-  <si>
-    <t>Total payments to auditor</t>
-  </si>
-  <si>
-    <t>CSR expenditure</t>
-  </si>
-  <si>
-    <t>Miscellaneous expenses</t>
-  </si>
-  <si>
     <t>18,881.61</t>
   </si>
   <si>
@@ -107,82 +59,34 @@
     <t>0</t>
   </si>
   <si>
+    <t>491.91</t>
+  </si>
+  <si>
     <t>567.19</t>
   </si>
   <si>
     <t>162.4</t>
   </si>
   <si>
-    <t>7,717.11</t>
-  </si>
-  <si>
     <t>7,976.89</t>
   </si>
   <si>
-    <t>587.31</t>
-  </si>
-  <si>
-    <t>148.88</t>
-  </si>
-  <si>
-    <t>6.59</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
-    <t>2.34</t>
-  </si>
-  <si>
-    <t>11.58</t>
-  </si>
-  <si>
-    <t>63.38</t>
-  </si>
-  <si>
-    <t>1,112.72</t>
-  </si>
-  <si>
     <t>15,513.12</t>
   </si>
   <si>
     <t>61.02</t>
   </si>
   <si>
+    <t>144.46</t>
+  </si>
+  <si>
     <t>205.48</t>
   </si>
   <si>
     <t>164.24</t>
   </si>
   <si>
-    <t>5,837.72</t>
-  </si>
-  <si>
     <t>6,048.72</t>
-  </si>
-  <si>
-    <t>516.69</t>
-  </si>
-  <si>
-    <t>129.32</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>50.78</t>
-  </si>
-  <si>
-    <t>718.44</t>
   </si>
 </sst>
 </file>
@@ -540,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -572,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -583,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -594,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -605,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -616,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -627,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -638,186 +542,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
